--- a/journalists.xlsx
+++ b/journalists.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Jordan Devore</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>fraser.brown@futurenet.com fraser.brown@protonmail.com</t>
+  </si>
+  <si>
+    <t>shaun (dot) prescott (@) gmail (dot) com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,10 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +432,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +441,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -492,8 +502,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
